--- a/Financial Analysis/DUOL.xlsx
+++ b/Financial Analysis/DUOL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26412A67-2892-4439-9C81-AA46841F8921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37B03BF-D09A-449D-B3EA-B76B13FFFDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9EA5A098-45C5-472E-8765-EE9A7145AF0E}"/>
   </bookViews>
@@ -31,30 +31,6 @@
     <author>Anton Mniszek</author>
   </authors>
   <commentList>
-    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{5A9B56E9-5761-456F-B5F0-A93F3A0EFB7E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Anton Mniszek:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Q424 guidance: 220.5-223.5</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AD3" authorId="0" shapeId="0" xr:uid="{58708693-72ED-4B1C-ACAC-E527BE89624F}">
       <text>
         <r>
@@ -84,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>DUOL</t>
   </si>
@@ -427,14 +403,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
@@ -451,8 +427,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11871960" y="7620"/>
-          <a:ext cx="0" cy="6134100"/>
+          <a:off x="12473940" y="7620"/>
+          <a:ext cx="0" cy="8145780"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -856,17 +832,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>310.01</v>
+        <v>486.42</v>
       </c>
       <c r="E3" s="3">
-        <v>45751</v>
+        <v>45781</v>
       </c>
       <c r="F3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45751</v>
+        <v>45781</v>
       </c>
       <c r="G3" s="3">
-        <v>45784</v>
+        <v>45875</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -874,7 +850,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -883,7 +863,7 @@
       </c>
       <c r="D5" s="5">
         <f>D3*D4</f>
-        <v>13919.448999999999</v>
+        <v>22132.11</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -891,8 +871,11 @@
         <v>4</v>
       </c>
       <c r="D6" s="5">
-        <f>785.8</f>
-        <v>785.8</v>
+        <f>884+115.3+83.3</f>
+        <v>1082.5999999999999</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -902,6 +885,9 @@
       <c r="D7" s="5">
         <v>0</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
@@ -909,7 +895,7 @@
       </c>
       <c r="D8" s="5">
         <f>D6-D7</f>
-        <v>785.8</v>
+        <v>1082.5999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -918,7 +904,7 @@
       </c>
       <c r="D9" s="5">
         <f>D5-D8</f>
-        <v>13133.648999999999</v>
+        <v>21049.510000000002</v>
       </c>
     </row>
   </sheetData>
@@ -932,10 +918,10 @@
   <dimension ref="B2:EI51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR51" sqref="AR51"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,11 +1097,11 @@
         <v>209.6</v>
       </c>
       <c r="S3" s="8">
-        <v>221.5</v>
+        <v>230.7</v>
       </c>
       <c r="T3" s="8">
-        <f>P3*1.3</f>
-        <v>231.79000000000002</v>
+        <f>P3*1.35</f>
+        <v>240.70500000000004</v>
       </c>
       <c r="U3" s="8">
         <f>Q3*1.29</f>
@@ -1149,47 +1135,47 @@
       </c>
       <c r="AD3" s="8">
         <f>SUM(S3:V3)</f>
-        <v>970.03200000000004</v>
+        <v>988.14700000000005</v>
       </c>
       <c r="AE3" s="8">
         <f>AD3*1.25</f>
-        <v>1212.54</v>
+        <v>1235.1837500000001</v>
       </c>
       <c r="AF3" s="8">
         <f>AE3*1.2</f>
-        <v>1455.048</v>
+        <v>1482.2205000000001</v>
       </c>
       <c r="AG3" s="8">
         <f>AF3*1.15</f>
-        <v>1673.3051999999998</v>
+        <v>1704.5535749999999</v>
       </c>
       <c r="AH3" s="8">
         <f>AG3*1.1</f>
-        <v>1840.63572</v>
+        <v>1875.0089325000001</v>
       </c>
       <c r="AI3" s="8">
         <f>AH3*1.08</f>
-        <v>1987.8865776</v>
+        <v>2025.0096471000002</v>
       </c>
       <c r="AJ3" s="8">
         <f>AI3*1.06</f>
-        <v>2107.159772256</v>
+        <v>2146.5102259260002</v>
       </c>
       <c r="AK3" s="8">
         <f>AJ3*1.05</f>
-        <v>2212.5177608688</v>
+        <v>2253.8357372223004</v>
       </c>
       <c r="AL3" s="8">
         <f t="shared" ref="AL3:AN3" si="0">AK3*1.05</f>
-        <v>2323.1436489122402</v>
+        <v>2366.5275240834153</v>
       </c>
       <c r="AM3" s="8">
         <f t="shared" si="0"/>
-        <v>2439.3008313578525</v>
+        <v>2484.8539002875864</v>
       </c>
       <c r="AN3" s="8">
         <f t="shared" si="0"/>
-        <v>2561.265872925745</v>
+        <v>2609.0965953019659</v>
       </c>
     </row>
     <row r="4" spans="2:139" x14ac:dyDescent="0.3">
@@ -1245,20 +1231,19 @@
         <v>58.9</v>
       </c>
       <c r="S4" s="5">
-        <f>S3-S5</f>
-        <v>62.02000000000001</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="T4" s="5">
         <f t="shared" ref="T4:V4" si="1">T3-T5</f>
-        <v>64.901200000000017</v>
+        <v>69.804450000000031</v>
       </c>
       <c r="U4" s="5">
         <f t="shared" si="1"/>
-        <v>69.567120000000017</v>
+        <v>72.051659999999998</v>
       </c>
       <c r="V4" s="5">
         <f t="shared" si="1"/>
-        <v>75.120640000000009</v>
+        <v>77.80352000000002</v>
       </c>
       <c r="X4" s="5">
         <v>20.7</v>
@@ -1284,47 +1269,47 @@
       </c>
       <c r="AD4" s="5">
         <f>SUM(S4:V4)</f>
-        <v>271.60896000000002</v>
+        <v>286.25963000000002</v>
       </c>
       <c r="AE4" s="5">
         <f>AE3-AE5</f>
-        <v>339.51120000000003</v>
+        <v>358.2032875000001</v>
       </c>
       <c r="AF4" s="5">
         <f t="shared" ref="AF4:AN4" si="2">AF3-AF5</f>
-        <v>407.41344000000004</v>
+        <v>429.84394500000008</v>
       </c>
       <c r="AG4" s="5">
         <f t="shared" si="2"/>
-        <v>468.52545600000008</v>
+        <v>494.32053674999997</v>
       </c>
       <c r="AH4" s="5">
         <f t="shared" si="2"/>
-        <v>515.37800160000006</v>
+        <v>543.75259042500011</v>
       </c>
       <c r="AI4" s="5">
         <f t="shared" si="2"/>
-        <v>556.60824172800017</v>
+        <v>587.25279765900018</v>
       </c>
       <c r="AJ4" s="5">
         <f t="shared" si="2"/>
-        <v>590.00473623168</v>
+        <v>622.48796551854002</v>
       </c>
       <c r="AK4" s="5">
         <f t="shared" si="2"/>
-        <v>619.50497304326404</v>
+        <v>653.61236379446723</v>
       </c>
       <c r="AL4" s="5">
         <f t="shared" si="2"/>
-        <v>650.48022169542742</v>
+        <v>686.29298198419042</v>
       </c>
       <c r="AM4" s="5">
         <f t="shared" si="2"/>
-        <v>683.00423278019866</v>
+        <v>720.60763108340007</v>
       </c>
       <c r="AN4" s="5">
         <f t="shared" si="2"/>
-        <v>717.15444441920863</v>
+        <v>756.63801263757023</v>
       </c>
     </row>
     <row r="5" spans="2:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1332,7 +1317,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="8">
-        <f t="shared" ref="C5:R5" si="3">C3-C4</f>
+        <f t="shared" ref="C5:S5" si="3">C3-C4</f>
         <v>40.4</v>
       </c>
       <c r="D5" s="8">
@@ -1396,20 +1381,20 @@
         <v>150.69999999999999</v>
       </c>
       <c r="S5" s="8">
-        <f>S3*0.72</f>
-        <v>159.47999999999999</v>
+        <f t="shared" si="3"/>
+        <v>164.1</v>
       </c>
       <c r="T5" s="8">
-        <f t="shared" ref="T5:V5" si="4">T3*0.72</f>
-        <v>166.8888</v>
+        <f>T3*0.71</f>
+        <v>170.90055000000001</v>
       </c>
       <c r="U5" s="8">
-        <f t="shared" si="4"/>
-        <v>178.88687999999999</v>
+        <f t="shared" ref="U5:V5" si="4">U3*0.71</f>
+        <v>176.40234000000001</v>
       </c>
       <c r="V5" s="8">
         <f t="shared" si="4"/>
-        <v>193.16736</v>
+        <v>190.48447999999999</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:AD5" si="5">X3-X4</f>
@@ -1437,47 +1422,47 @@
       </c>
       <c r="AD5" s="8">
         <f t="shared" si="5"/>
-        <v>698.42304000000001</v>
+        <v>701.88737000000003</v>
       </c>
       <c r="AE5" s="8">
-        <f>AE3*0.72</f>
-        <v>873.02879999999993</v>
+        <f>AE3*0.71</f>
+        <v>876.98046250000004</v>
       </c>
       <c r="AF5" s="8">
-        <f t="shared" ref="AF5:AN5" si="6">AF3*0.72</f>
-        <v>1047.63456</v>
+        <f t="shared" ref="AF5:AN5" si="6">AF3*0.71</f>
+        <v>1052.3765550000001</v>
       </c>
       <c r="AG5" s="8">
         <f t="shared" si="6"/>
-        <v>1204.7797439999997</v>
+        <v>1210.2330382499999</v>
       </c>
       <c r="AH5" s="8">
         <f t="shared" si="6"/>
-        <v>1325.2577183999999</v>
+        <v>1331.256342075</v>
       </c>
       <c r="AI5" s="8">
         <f t="shared" si="6"/>
-        <v>1431.2783358719998</v>
+        <v>1437.756849441</v>
       </c>
       <c r="AJ5" s="8">
         <f t="shared" si="6"/>
-        <v>1517.15503602432</v>
+        <v>1524.0222604074602</v>
       </c>
       <c r="AK5" s="8">
         <f t="shared" si="6"/>
-        <v>1593.012787825536</v>
+        <v>1600.2233734278332</v>
       </c>
       <c r="AL5" s="8">
         <f t="shared" si="6"/>
-        <v>1672.6634272168128</v>
+        <v>1680.2345420992249</v>
       </c>
       <c r="AM5" s="8">
         <f t="shared" si="6"/>
-        <v>1756.2965985776539</v>
+        <v>1764.2462692041863</v>
       </c>
       <c r="AN5" s="8">
         <f t="shared" si="6"/>
-        <v>1844.1114285065364</v>
+        <v>1852.4585826643956</v>
       </c>
     </row>
     <row r="6" spans="2:139" x14ac:dyDescent="0.3">
@@ -1533,8 +1518,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="S6" s="5">
-        <f>O6*1.35</f>
-        <v>68.715000000000003</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="T6" s="5">
         <f t="shared" ref="T6" si="7">P6*1.3</f>
@@ -1572,47 +1556,47 @@
       </c>
       <c r="AD6" s="5">
         <f>SUM(S6:V6)</f>
-        <v>298.72000000000003</v>
+        <v>300.40500000000003</v>
       </c>
       <c r="AE6" s="5">
         <f>AD6*1.18</f>
-        <v>352.4896</v>
+        <v>354.47790000000003</v>
       </c>
       <c r="AF6" s="5">
         <f>AE6*1.12</f>
-        <v>394.78835200000003</v>
+        <v>397.0152480000001</v>
       </c>
       <c r="AG6" s="5">
         <f>AF6*1.06</f>
-        <v>418.47565312000006</v>
+        <v>420.83616288000013</v>
       </c>
       <c r="AH6" s="5">
         <f>AG6*1.04</f>
-        <v>435.2146792448001</v>
+        <v>437.66960939520015</v>
       </c>
       <c r="AI6" s="5">
         <f>AH6*1.03</f>
-        <v>448.27111962214411</v>
+        <v>450.79969767705614</v>
       </c>
       <c r="AJ6" s="5">
         <f>AI6*1.02</f>
-        <v>457.23654201458703</v>
+        <v>459.81569163059726</v>
       </c>
       <c r="AK6" s="5">
         <f t="shared" ref="AK6:AN6" si="8">AJ6*1.02</f>
-        <v>466.38127285487877</v>
+        <v>469.01200546320922</v>
       </c>
       <c r="AL6" s="5">
         <f t="shared" si="8"/>
-        <v>475.70889831197638</v>
+        <v>478.39224557247343</v>
       </c>
       <c r="AM6" s="5">
         <f t="shared" si="8"/>
-        <v>485.2230762782159</v>
+        <v>487.9600904839229</v>
       </c>
       <c r="AN6" s="5">
         <f t="shared" si="8"/>
-        <v>494.92753780378024</v>
+        <v>497.71929229360137</v>
       </c>
     </row>
     <row r="7" spans="2:139" x14ac:dyDescent="0.3">
@@ -1668,12 +1652,11 @@
         <v>24.8</v>
       </c>
       <c r="S7" s="5">
-        <f>S3*0.11</f>
-        <v>24.364999999999998</v>
+        <v>26.7</v>
       </c>
       <c r="T7" s="5">
         <f t="shared" ref="T7:V7" si="9">T3*0.11</f>
-        <v>25.496900000000004</v>
+        <v>26.477550000000004</v>
       </c>
       <c r="U7" s="5">
         <f t="shared" si="9"/>
@@ -1707,47 +1690,47 @@
       </c>
       <c r="AD7" s="5">
         <f>SUM(S7:V7)</f>
-        <v>106.70352000000001</v>
+        <v>110.01917</v>
       </c>
       <c r="AE7" s="5">
         <f>AE3*0.1</f>
-        <v>121.254</v>
+        <v>123.51837500000002</v>
       </c>
       <c r="AF7" s="5">
         <f>AF3*0.09</f>
-        <v>130.95432</v>
+        <v>133.399845</v>
       </c>
       <c r="AG7" s="5">
         <f>AG3*0.09</f>
-        <v>150.59746799999996</v>
+        <v>153.40982174999999</v>
       </c>
       <c r="AH7" s="5">
         <f t="shared" ref="AH7:AN7" si="10">AH3*0.09</f>
-        <v>165.65721479999999</v>
+        <v>168.75080392500001</v>
       </c>
       <c r="AI7" s="5">
         <f t="shared" si="10"/>
-        <v>178.90979198399998</v>
+        <v>182.250868239</v>
       </c>
       <c r="AJ7" s="5">
         <f t="shared" si="10"/>
-        <v>189.64437950304</v>
+        <v>193.18592033334002</v>
       </c>
       <c r="AK7" s="5">
         <f t="shared" si="10"/>
-        <v>199.12659847819199</v>
+        <v>202.84521635000704</v>
       </c>
       <c r="AL7" s="5">
         <f t="shared" si="10"/>
-        <v>209.0829284021016</v>
+        <v>212.98747716750736</v>
       </c>
       <c r="AM7" s="5">
         <f t="shared" si="10"/>
-        <v>219.53707482220673</v>
+        <v>223.63685102588278</v>
       </c>
       <c r="AN7" s="5">
         <f t="shared" si="10"/>
-        <v>230.51392856331705</v>
+        <v>234.81869357717693</v>
       </c>
     </row>
     <row r="8" spans="2:139" x14ac:dyDescent="0.3">
@@ -1803,8 +1786,7 @@
         <v>45.5</v>
       </c>
       <c r="S8" s="5">
-        <f>O8*1.3</f>
-        <v>45.63</v>
+        <v>43.5</v>
       </c>
       <c r="T8" s="5">
         <f>P8*1.3</f>
@@ -1842,47 +1824,47 @@
       </c>
       <c r="AD8" s="5">
         <f>SUM(S8:V8)</f>
-        <v>195.42000000000002</v>
+        <v>193.29</v>
       </c>
       <c r="AE8" s="5">
         <f>AD8*1.17</f>
-        <v>228.6414</v>
+        <v>226.14929999999998</v>
       </c>
       <c r="AF8" s="5">
         <f>AE8*1.11</f>
-        <v>253.79195400000003</v>
+        <v>251.025723</v>
       </c>
       <c r="AG8" s="5">
         <f>AF8*1.07</f>
-        <v>271.55739078000005</v>
+        <v>268.59752361</v>
       </c>
       <c r="AH8" s="5">
         <f>AG8*1.04</f>
-        <v>282.41968641120008</v>
+        <v>279.34142455440002</v>
       </c>
       <c r="AI8" s="5">
         <f>AH8*1.03</f>
-        <v>290.89227700353609</v>
+        <v>287.72166729103202</v>
       </c>
       <c r="AJ8" s="5">
         <f>AI8*1.02</f>
-        <v>296.71012254360681</v>
+        <v>293.47610063685266</v>
       </c>
       <c r="AK8" s="5">
         <f>AJ8*1.01</f>
-        <v>299.67722376904288</v>
+        <v>296.41086164322121</v>
       </c>
       <c r="AL8" s="5">
         <f t="shared" ref="AL8:AN8" si="12">AK8*1.01</f>
-        <v>302.67399600673332</v>
+        <v>299.37497025965342</v>
       </c>
       <c r="AM8" s="5">
         <f t="shared" si="12"/>
-        <v>305.70073596680066</v>
+        <v>302.36871996224994</v>
       </c>
       <c r="AN8" s="5">
         <f t="shared" si="12"/>
-        <v>308.7577433264687</v>
+        <v>305.39240716187243</v>
       </c>
     </row>
     <row r="9" spans="2:139" x14ac:dyDescent="0.3">
@@ -1955,11 +1937,11 @@
       </c>
       <c r="S9" s="5">
         <f t="shared" ref="S9" si="14">SUM(S6:S8)</f>
-        <v>138.71</v>
+        <v>140.60000000000002</v>
       </c>
       <c r="T9" s="5">
         <f t="shared" ref="T9" si="15">SUM(T6:T8)</f>
-        <v>145.2269</v>
+        <v>146.20755000000003</v>
       </c>
       <c r="U9" s="5">
         <f t="shared" ref="U9" si="16">SUM(U6:U8)</f>
@@ -1995,47 +1977,47 @@
       </c>
       <c r="AD9" s="5">
         <f t="shared" si="18"/>
-        <v>600.84352000000013</v>
+        <v>603.71416999999997</v>
       </c>
       <c r="AE9" s="5">
         <f t="shared" ref="AE9" si="19">SUM(AE6:AE8)</f>
-        <v>702.38499999999999</v>
+        <v>704.14557500000001</v>
       </c>
       <c r="AF9" s="5">
         <f t="shared" ref="AF9" si="20">SUM(AF6:AF8)</f>
-        <v>779.53462600000012</v>
+        <v>781.44081600000004</v>
       </c>
       <c r="AG9" s="5">
         <f t="shared" ref="AG9" si="21">SUM(AG6:AG8)</f>
-        <v>840.6305119000001</v>
+        <v>842.84350824000012</v>
       </c>
       <c r="AH9" s="5">
         <f t="shared" ref="AH9" si="22">SUM(AH6:AH8)</f>
-        <v>883.29158045600025</v>
+        <v>885.76183787460013</v>
       </c>
       <c r="AI9" s="5">
         <f t="shared" ref="AI9" si="23">SUM(AI6:AI8)</f>
-        <v>918.07318860968007</v>
+        <v>920.77223320708822</v>
       </c>
       <c r="AJ9" s="5">
         <f t="shared" ref="AJ9" si="24">SUM(AJ6:AJ8)</f>
-        <v>943.59104406123379</v>
+        <v>946.47771260079003</v>
       </c>
       <c r="AK9" s="5">
         <f t="shared" ref="AK9" si="25">SUM(AK6:AK8)</f>
-        <v>965.18509510211356</v>
+        <v>968.26808345643747</v>
       </c>
       <c r="AL9" s="5">
         <f t="shared" ref="AL9" si="26">SUM(AL6:AL8)</f>
-        <v>987.46582272081127</v>
+        <v>990.75469299963424</v>
       </c>
       <c r="AM9" s="5">
         <f t="shared" ref="AM9" si="27">SUM(AM6:AM8)</f>
-        <v>1010.4608870672232</v>
+        <v>1013.9656614720557</v>
       </c>
       <c r="AN9" s="5">
         <f t="shared" ref="AN9" si="28">SUM(AN6:AN8)</f>
-        <v>1034.199209693566</v>
+        <v>1037.9303930326507</v>
       </c>
     </row>
     <row r="10" spans="2:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2108,19 +2090,19 @@
       </c>
       <c r="S10" s="8">
         <f t="shared" ref="S10" si="30">S5-S9</f>
-        <v>20.769999999999982</v>
+        <v>23.499999999999972</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" ref="T10" si="31">T5-T9</f>
-        <v>21.661900000000003</v>
+        <v>24.692999999999984</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" ref="U10" si="32">U5-U9</f>
-        <v>26.189940000000007</v>
+        <v>23.705400000000026</v>
       </c>
       <c r="V10" s="8">
         <f t="shared" ref="V10" si="33">V5-V9</f>
-        <v>28.957680000000011</v>
+        <v>26.274799999999999</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" ref="X10:AD10" si="34">X5-X9</f>
@@ -2148,47 +2130,47 @@
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="34"/>
-        <v>97.579519999999889</v>
+        <v>98.173200000000065</v>
       </c>
       <c r="AE10" s="8">
         <f t="shared" ref="AE10" si="35">AE5-AE9</f>
-        <v>170.64379999999994</v>
+        <v>172.83488750000004</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" ref="AF10" si="36">AF5-AF9</f>
-        <v>268.09993399999985</v>
+        <v>270.93573900000001</v>
       </c>
       <c r="AG10" s="8">
         <f t="shared" ref="AG10" si="37">AG5-AG9</f>
-        <v>364.14923209999961</v>
+        <v>367.38953000999982</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" ref="AH10" si="38">AH5-AH9</f>
-        <v>441.96613794399968</v>
+        <v>445.49450420039989</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" ref="AI10" si="39">AI5-AI9</f>
-        <v>513.20514726231977</v>
+        <v>516.98461623391177</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" ref="AJ10" si="40">AJ5-AJ9</f>
-        <v>573.56399196308621</v>
+        <v>577.54454780667015</v>
       </c>
       <c r="AK10" s="8">
         <f t="shared" ref="AK10" si="41">AK5-AK9</f>
-        <v>627.82769272342239</v>
+        <v>631.9552899713957</v>
       </c>
       <c r="AL10" s="8">
         <f t="shared" ref="AL10" si="42">AL5-AL9</f>
-        <v>685.19760449600153</v>
+        <v>689.47984909959064</v>
       </c>
       <c r="AM10" s="8">
         <f t="shared" ref="AM10" si="43">AM5-AM9</f>
-        <v>745.83571151043066</v>
+        <v>750.28060773213065</v>
       </c>
       <c r="AN10" s="8">
         <f t="shared" ref="AN10" si="44">AN5-AN9</f>
-        <v>809.91221881297042</v>
+        <v>814.52818963174491</v>
       </c>
     </row>
     <row r="11" spans="2:139" x14ac:dyDescent="0.3">
@@ -2244,7 +2226,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="S11" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T11" s="5">
         <v>1</v>
@@ -2279,47 +2261,47 @@
       </c>
       <c r="AD11" s="5">
         <f>SUM(S11:V11)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE11" s="5">
         <f>AD11*1.05</f>
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="AF11" s="5">
         <f t="shared" ref="AF11:AN11" si="45">AE11*1.05</f>
-        <v>4.41</v>
+        <v>2.2050000000000001</v>
       </c>
       <c r="AG11" s="5">
         <f t="shared" si="45"/>
-        <v>4.6305000000000005</v>
+        <v>2.3152500000000003</v>
       </c>
       <c r="AH11" s="5">
         <f t="shared" si="45"/>
-        <v>4.8620250000000009</v>
+        <v>2.4310125000000005</v>
       </c>
       <c r="AI11" s="5">
         <f t="shared" si="45"/>
-        <v>5.1051262500000014</v>
+        <v>2.5525631250000007</v>
       </c>
       <c r="AJ11" s="5">
         <f t="shared" si="45"/>
-        <v>5.3603825625000017</v>
+        <v>2.6801912812500008</v>
       </c>
       <c r="AK11" s="5">
         <f t="shared" si="45"/>
-        <v>5.6284016906250018</v>
+        <v>2.8142008453125009</v>
       </c>
       <c r="AL11" s="5">
         <f t="shared" si="45"/>
-        <v>5.9098217751562521</v>
+        <v>2.954910887578126</v>
       </c>
       <c r="AM11" s="5">
         <f t="shared" si="45"/>
-        <v>6.2053128639140649</v>
+        <v>3.1026564319570324</v>
       </c>
       <c r="AN11" s="5">
         <f t="shared" si="45"/>
-        <v>6.515578507109768</v>
+        <v>3.257789253554884</v>
       </c>
     </row>
     <row r="12" spans="2:139" x14ac:dyDescent="0.3">
@@ -2375,8 +2357,7 @@
         <v>-10.7</v>
       </c>
       <c r="S12" s="5">
-        <f>O12*1.05</f>
-        <v>-10.5</v>
+        <v>-10.4</v>
       </c>
       <c r="T12" s="5">
         <f t="shared" ref="T12:V12" si="46">P12*1.05</f>
@@ -2414,47 +2395,47 @@
       </c>
       <c r="AD12" s="5">
         <f>SUM(S12:V12)</f>
-        <v>-44.73</v>
+        <v>-44.629999999999995</v>
       </c>
       <c r="AE12" s="5">
         <f>AD12*1.05</f>
-        <v>-46.966499999999996</v>
+        <v>-46.861499999999999</v>
       </c>
       <c r="AF12" s="5">
         <f t="shared" ref="AF12:AN12" si="47">AE12*1.05</f>
-        <v>-49.314824999999999</v>
+        <v>-49.204574999999998</v>
       </c>
       <c r="AG12" s="5">
         <f t="shared" si="47"/>
-        <v>-51.78056625</v>
+        <v>-51.664803749999997</v>
       </c>
       <c r="AH12" s="5">
         <f t="shared" si="47"/>
-        <v>-54.369594562500005</v>
+        <v>-54.2480439375</v>
       </c>
       <c r="AI12" s="5">
         <f t="shared" si="47"/>
-        <v>-57.088074290625009</v>
+        <v>-56.960446134375005</v>
       </c>
       <c r="AJ12" s="5">
         <f t="shared" si="47"/>
-        <v>-59.942478005156261</v>
+        <v>-59.808468441093758</v>
       </c>
       <c r="AK12" s="5">
         <f t="shared" si="47"/>
-        <v>-62.939601905414079</v>
+        <v>-62.798891863148448</v>
       </c>
       <c r="AL12" s="5">
         <f t="shared" si="47"/>
-        <v>-66.086582000684785</v>
+        <v>-65.938836456305879</v>
       </c>
       <c r="AM12" s="5">
         <f t="shared" si="47"/>
-        <v>-69.390911100719023</v>
+        <v>-69.235778279121178</v>
       </c>
       <c r="AN12" s="5">
         <f t="shared" si="47"/>
-        <v>-72.860456655754973</v>
+        <v>-72.697567193077234</v>
       </c>
     </row>
     <row r="13" spans="2:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2527,19 +2508,19 @@
       </c>
       <c r="S13" s="8">
         <f t="shared" ref="S13" si="49">S10-S11-S12</f>
-        <v>30.269999999999982</v>
+        <v>34.89999999999997</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" ref="T13" si="50">T10-T11-T12</f>
-        <v>31.896900000000002</v>
+        <v>34.927999999999983</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" ref="U13" si="51">U10-U11-U12</f>
-        <v>36.949940000000005</v>
+        <v>34.465400000000024</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" ref="V13" si="52">V10-V11-V12</f>
-        <v>39.19268000000001</v>
+        <v>36.509799999999998</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" ref="X13:AE13" si="53">X10-X11-X12</f>
@@ -2567,47 +2548,47 @@
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="53"/>
-        <v>138.30951999999988</v>
+        <v>140.80320000000006</v>
       </c>
       <c r="AE13" s="8">
         <f t="shared" si="53"/>
-        <v>213.41029999999995</v>
+        <v>217.59638750000005</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" ref="AF13" si="54">AF10-AF11-AF12</f>
-        <v>313.00475899999981</v>
+        <v>317.93531400000001</v>
       </c>
       <c r="AG13" s="8">
         <f t="shared" ref="AG13" si="55">AG10-AG11-AG12</f>
-        <v>411.29929834999962</v>
+        <v>416.7390837599998</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" ref="AH13" si="56">AH10-AH11-AH12</f>
-        <v>491.47370750649969</v>
+        <v>497.31153563789985</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" ref="AI13" si="57">AI10-AI11-AI12</f>
-        <v>565.18809530294482</v>
+        <v>571.39249924328681</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" ref="AJ13" si="58">AJ10-AJ11-AJ12</f>
-        <v>628.14608740574249</v>
+        <v>634.67282496651387</v>
       </c>
       <c r="AK13" s="8">
         <f t="shared" ref="AK13" si="59">AK10-AK11-AK12</f>
-        <v>685.13889293821148</v>
+        <v>691.93998098923169</v>
       </c>
       <c r="AL13" s="8">
         <f t="shared" ref="AL13" si="60">AL10-AL11-AL12</f>
-        <v>745.37436472153001</v>
+        <v>752.46377466831848</v>
       </c>
       <c r="AM13" s="8">
         <f t="shared" ref="AM13" si="61">AM10-AM11-AM12</f>
-        <v>809.02130974723559</v>
+        <v>816.4137295792948</v>
       </c>
       <c r="AN13" s="8">
         <f t="shared" ref="AN13" si="62">AN10-AN11-AN12</f>
-        <v>876.25709696161562</v>
+        <v>883.96796757126731</v>
       </c>
     </row>
     <row r="14" spans="2:139" x14ac:dyDescent="0.3">
@@ -2663,20 +2644,19 @@
         <v>8.4</v>
       </c>
       <c r="S14" s="5">
-        <f>S13*0.15</f>
-        <v>4.5404999999999971</v>
+        <v>-0.1</v>
       </c>
       <c r="T14" s="5">
         <f t="shared" ref="T14:V14" si="63">T13*0.15</f>
-        <v>4.784535</v>
+        <v>5.2391999999999976</v>
       </c>
       <c r="U14" s="5">
         <f t="shared" si="63"/>
-        <v>5.5424910000000009</v>
+        <v>5.1698100000000036</v>
       </c>
       <c r="V14" s="5">
         <f t="shared" si="63"/>
-        <v>5.878902000000001</v>
+        <v>5.4764699999999999</v>
       </c>
       <c r="X14" s="5">
         <v>0</v>
@@ -2702,47 +2682,47 @@
       </c>
       <c r="AD14" s="5">
         <f>SUM(S14:V14)</f>
-        <v>20.746427999999998</v>
+        <v>15.78548</v>
       </c>
       <c r="AE14" s="5">
         <f>AE13*0.15</f>
-        <v>32.011544999999991</v>
+        <v>32.639458125000004</v>
       </c>
       <c r="AF14" s="5">
         <f t="shared" ref="AF14:AN14" si="64">AF13*0.15</f>
-        <v>46.950713849999971</v>
+        <v>47.690297100000002</v>
       </c>
       <c r="AG14" s="5">
         <f t="shared" si="64"/>
-        <v>61.694894752499941</v>
+        <v>62.510862563999964</v>
       </c>
       <c r="AH14" s="5">
         <f t="shared" si="64"/>
-        <v>73.721056125974954</v>
+        <v>74.596730345684975</v>
       </c>
       <c r="AI14" s="5">
         <f t="shared" si="64"/>
-        <v>84.778214295441714</v>
+        <v>85.708874886493021</v>
       </c>
       <c r="AJ14" s="5">
         <f t="shared" si="64"/>
-        <v>94.221913110861365</v>
+        <v>95.200923744977075</v>
       </c>
       <c r="AK14" s="5">
         <f t="shared" si="64"/>
-        <v>102.77083394073172</v>
+        <v>103.79099714838475</v>
       </c>
       <c r="AL14" s="5">
         <f t="shared" si="64"/>
-        <v>111.8061547082295</v>
+        <v>112.86956620024777</v>
       </c>
       <c r="AM14" s="5">
         <f t="shared" si="64"/>
-        <v>121.35319646208534</v>
+        <v>122.46205943689421</v>
       </c>
       <c r="AN14" s="5">
         <f t="shared" si="64"/>
-        <v>131.43856454424233</v>
+        <v>132.59519513569009</v>
       </c>
     </row>
     <row r="15" spans="2:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2815,19 +2795,19 @@
       </c>
       <c r="S15" s="8">
         <f t="shared" ref="S15" si="66">S13-S14</f>
-        <v>25.729499999999984</v>
+        <v>34.999999999999972</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" ref="T15" si="67">T13-T14</f>
-        <v>27.112365000000004</v>
+        <v>29.688799999999986</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" ref="U15" si="68">U13-U14</f>
-        <v>31.407449000000003</v>
+        <v>29.295590000000018</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" ref="V15" si="69">V13-V14</f>
-        <v>33.313778000000006</v>
+        <v>31.033329999999999</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" ref="X15:AE15" si="70">X13-X14</f>
@@ -2855,443 +2835,443 @@
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="70"/>
-        <v>117.56309199999988</v>
+        <v>125.01772000000005</v>
       </c>
       <c r="AE15" s="8">
         <f t="shared" si="70"/>
-        <v>181.39875499999997</v>
+        <v>184.95692937500004</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" ref="AF15" si="71">AF13-AF14</f>
-        <v>266.05404514999987</v>
+        <v>270.2450169</v>
       </c>
       <c r="AG15" s="8">
         <f t="shared" ref="AG15" si="72">AG13-AG14</f>
-        <v>349.6044035974997</v>
+        <v>354.22822119599982</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" ref="AH15" si="73">AH13-AH14</f>
-        <v>417.75265138052475</v>
+        <v>422.71480529221486</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" ref="AI15" si="74">AI13-AI14</f>
-        <v>480.40988100750309</v>
+        <v>485.68362435679376</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" ref="AJ15" si="75">AJ13-AJ14</f>
-        <v>533.92417429488114</v>
+        <v>539.47190122153677</v>
       </c>
       <c r="AK15" s="8">
         <f t="shared" ref="AK15" si="76">AK13-AK14</f>
-        <v>582.36805899747981</v>
+        <v>588.148983840847</v>
       </c>
       <c r="AL15" s="8">
         <f t="shared" ref="AL15" si="77">AL13-AL14</f>
-        <v>633.56821001330047</v>
+        <v>639.59420846807075</v>
       </c>
       <c r="AM15" s="8">
         <f t="shared" ref="AM15" si="78">AM13-AM14</f>
-        <v>687.6681132851503</v>
+        <v>693.95167014240064</v>
       </c>
       <c r="AN15" s="8">
         <f t="shared" ref="AN15" si="79">AN13-AN14</f>
-        <v>744.81853241737326</v>
+        <v>751.37277243557719</v>
       </c>
       <c r="AO15" s="1">
         <f>AN15*(1+$AR$21)</f>
-        <v>737.37034709319948</v>
+        <v>743.85904471122137</v>
       </c>
       <c r="AP15" s="1">
         <f t="shared" ref="AP15:DA15" si="80">AO15*(1+$AR$21)</f>
-        <v>729.99664362226747</v>
+        <v>736.42045426410914</v>
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="80"/>
-        <v>722.69667718604478</v>
+        <v>729.05624972146802</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="80"/>
-        <v>715.46971041418431</v>
+        <v>721.76568722425338</v>
       </c>
       <c r="AS15" s="1">
         <f t="shared" si="80"/>
-        <v>708.31501331004245</v>
+        <v>714.54803035201087</v>
       </c>
       <c r="AT15" s="1">
         <f t="shared" si="80"/>
-        <v>701.23186317694206</v>
+        <v>707.40255004849075</v>
       </c>
       <c r="AU15" s="1">
         <f t="shared" si="80"/>
-        <v>694.21954454517265</v>
+        <v>700.32852454800582</v>
       </c>
       <c r="AV15" s="1">
         <f t="shared" si="80"/>
-        <v>687.27734909972094</v>
+        <v>693.3252393025258</v>
       </c>
       <c r="AW15" s="1">
         <f t="shared" si="80"/>
-        <v>680.40457560872369</v>
+        <v>686.39198690950059</v>
       </c>
       <c r="AX15" s="1">
         <f t="shared" si="80"/>
-        <v>673.60052985263644</v>
+        <v>679.52806704040563</v>
       </c>
       <c r="AY15" s="1">
         <f t="shared" si="80"/>
-        <v>666.86452455411006</v>
+        <v>672.73278637000158</v>
       </c>
       <c r="AZ15" s="1">
         <f t="shared" si="80"/>
-        <v>660.19587930856892</v>
+        <v>666.00545850630158</v>
       </c>
       <c r="BA15" s="1">
         <f t="shared" si="80"/>
-        <v>653.59392051548321</v>
+        <v>659.34540392123859</v>
       </c>
       <c r="BB15" s="1">
         <f t="shared" si="80"/>
-        <v>647.05798131032839</v>
+        <v>652.75194988202622</v>
       </c>
       <c r="BC15" s="1">
         <f t="shared" si="80"/>
-        <v>640.58740149722507</v>
+        <v>646.22443038320591</v>
       </c>
       <c r="BD15" s="1">
         <f t="shared" si="80"/>
-        <v>634.18152748225282</v>
+        <v>639.76218607937381</v>
       </c>
       <c r="BE15" s="1">
         <f t="shared" si="80"/>
-        <v>627.83971220743024</v>
+        <v>633.36456421858009</v>
       </c>
       <c r="BF15" s="1">
         <f t="shared" si="80"/>
-        <v>621.56131508535589</v>
+        <v>627.03091857639424</v>
       </c>
       <c r="BG15" s="1">
         <f t="shared" si="80"/>
-        <v>615.34570193450236</v>
+        <v>620.76060939063029</v>
       </c>
       <c r="BH15" s="1">
         <f t="shared" si="80"/>
-        <v>609.19224491515729</v>
+        <v>614.553003296724</v>
       </c>
       <c r="BI15" s="1">
         <f t="shared" si="80"/>
-        <v>603.10032246600576</v>
+        <v>608.40747326375674</v>
       </c>
       <c r="BJ15" s="1">
         <f t="shared" si="80"/>
-        <v>597.06931924134574</v>
+        <v>602.32339853111921</v>
       </c>
       <c r="BK15" s="1">
         <f t="shared" si="80"/>
-        <v>591.09862604893226</v>
+        <v>596.300164545808</v>
       </c>
       <c r="BL15" s="1">
         <f t="shared" si="80"/>
-        <v>585.18763978844288</v>
+        <v>590.33716290034988</v>
       </c>
       <c r="BM15" s="1">
         <f t="shared" si="80"/>
-        <v>579.33576339055844</v>
+        <v>584.43379127134642</v>
       </c>
       <c r="BN15" s="1">
         <f t="shared" si="80"/>
-        <v>573.5424057566529</v>
+        <v>578.58945335863291</v>
       </c>
       <c r="BO15" s="1">
         <f t="shared" si="80"/>
-        <v>567.80698169908635</v>
+        <v>572.80355882504659</v>
       </c>
       <c r="BP15" s="1">
         <f t="shared" si="80"/>
-        <v>562.12891188209551</v>
+        <v>567.07552323679613</v>
       </c>
       <c r="BQ15" s="1">
         <f t="shared" si="80"/>
-        <v>556.50762276327453</v>
+        <v>561.40476800442821</v>
       </c>
       <c r="BR15" s="1">
         <f t="shared" si="80"/>
-        <v>550.94254653564178</v>
+        <v>555.79072032438387</v>
       </c>
       <c r="BS15" s="1">
         <f t="shared" si="80"/>
-        <v>545.43312107028532</v>
+        <v>550.23281312114</v>
       </c>
       <c r="BT15" s="1">
         <f t="shared" si="80"/>
-        <v>539.97878985958243</v>
+        <v>544.73048498992864</v>
       </c>
       <c r="BU15" s="1">
         <f t="shared" si="80"/>
-        <v>534.5790019609866</v>
+        <v>539.28318014002934</v>
       </c>
       <c r="BV15" s="1">
         <f t="shared" si="80"/>
-        <v>529.23321194137668</v>
+        <v>533.890348338629</v>
       </c>
       <c r="BW15" s="1">
         <f t="shared" si="80"/>
-        <v>523.94087982196288</v>
+        <v>528.55144485524272</v>
       </c>
       <c r="BX15" s="1">
         <f t="shared" si="80"/>
-        <v>518.70147102374324</v>
+        <v>523.26593040669025</v>
       </c>
       <c r="BY15" s="1">
         <f t="shared" si="80"/>
-        <v>513.51445631350578</v>
+        <v>518.0332711026233</v>
       </c>
       <c r="BZ15" s="1">
         <f t="shared" si="80"/>
-        <v>508.37931175037073</v>
+        <v>512.85293839159704</v>
       </c>
       <c r="CA15" s="1">
         <f t="shared" si="80"/>
-        <v>503.29551863286702</v>
+        <v>507.72440900768106</v>
       </c>
       <c r="CB15" s="1">
         <f t="shared" si="80"/>
-        <v>498.26256344653837</v>
+        <v>502.64716491760424</v>
       </c>
       <c r="CC15" s="1">
         <f t="shared" si="80"/>
-        <v>493.279937812073</v>
+        <v>497.62069326842817</v>
       </c>
       <c r="CD15" s="1">
         <f t="shared" si="80"/>
-        <v>488.34713843395224</v>
+        <v>492.64448633574386</v>
       </c>
       <c r="CE15" s="1">
         <f t="shared" si="80"/>
-        <v>483.4636670496127</v>
+        <v>487.7180414723864</v>
       </c>
       <c r="CF15" s="1">
         <f t="shared" si="80"/>
-        <v>478.62903037911656</v>
+        <v>482.84086105766255</v>
       </c>
       <c r="CG15" s="1">
         <f t="shared" si="80"/>
-        <v>473.84274007532537</v>
+        <v>478.01245244708593</v>
       </c>
       <c r="CH15" s="1">
         <f t="shared" si="80"/>
-        <v>469.1043126745721</v>
+        <v>473.23232792261507</v>
       </c>
       <c r="CI15" s="1">
         <f t="shared" si="80"/>
-        <v>464.41326954782636</v>
+        <v>468.50000464338893</v>
       </c>
       <c r="CJ15" s="1">
         <f t="shared" si="80"/>
-        <v>459.76913685234808</v>
+        <v>463.81500459695502</v>
       </c>
       <c r="CK15" s="1">
         <f t="shared" si="80"/>
-        <v>455.17144548382458</v>
+        <v>459.17685455098547</v>
       </c>
       <c r="CL15" s="1">
         <f t="shared" si="80"/>
-        <v>450.61973102898634</v>
+        <v>454.5850860054756</v>
       </c>
       <c r="CM15" s="1">
         <f t="shared" si="80"/>
-        <v>446.11353371869649</v>
+        <v>450.03923514542083</v>
       </c>
       <c r="CN15" s="1">
         <f t="shared" si="80"/>
-        <v>441.6523983815095</v>
+        <v>445.53884279396664</v>
       </c>
       <c r="CO15" s="1">
         <f t="shared" si="80"/>
-        <v>437.23587439769437</v>
+        <v>441.08345436602696</v>
       </c>
       <c r="CP15" s="1">
         <f t="shared" si="80"/>
-        <v>432.8635156537174</v>
+        <v>436.6726198223667</v>
       </c>
       <c r="CQ15" s="1">
         <f t="shared" si="80"/>
-        <v>428.53488049718021</v>
+        <v>432.30589362414304</v>
       </c>
       <c r="CR15" s="1">
         <f t="shared" si="80"/>
-        <v>424.24953169220839</v>
+        <v>427.98283468790163</v>
       </c>
       <c r="CS15" s="1">
         <f t="shared" si="80"/>
-        <v>420.0070363752863</v>
+        <v>423.70300634102261</v>
       </c>
       <c r="CT15" s="1">
         <f t="shared" si="80"/>
-        <v>415.80696601153346</v>
+        <v>419.46597627761241</v>
       </c>
       <c r="CU15" s="1">
         <f t="shared" si="80"/>
-        <v>411.6488963514181</v>
+        <v>415.27131651483626</v>
       </c>
       <c r="CV15" s="1">
         <f t="shared" si="80"/>
-        <v>407.5324073879039</v>
+        <v>411.11860334968787</v>
       </c>
       <c r="CW15" s="1">
         <f t="shared" si="80"/>
-        <v>403.45708331402489</v>
+        <v>407.00741731619098</v>
       </c>
       <c r="CX15" s="1">
         <f t="shared" si="80"/>
-        <v>399.42251248088462</v>
+        <v>402.93734314302907</v>
       </c>
       <c r="CY15" s="1">
         <f t="shared" si="80"/>
-        <v>395.42828735607577</v>
+        <v>398.90796971159875</v>
       </c>
       <c r="CZ15" s="1">
         <f t="shared" si="80"/>
-        <v>391.474004482515</v>
+        <v>394.91889001448277</v>
       </c>
       <c r="DA15" s="1">
         <f t="shared" si="80"/>
-        <v>387.55926443768982</v>
+        <v>390.96970111433797</v>
       </c>
       <c r="DB15" s="1">
         <f t="shared" ref="DB15:EI15" si="81">DA15*(1+$AR$21)</f>
-        <v>383.6836717933129</v>
+        <v>387.06000410319456</v>
       </c>
       <c r="DC15" s="1">
         <f t="shared" si="81"/>
-        <v>379.84683507537977</v>
+        <v>383.18940406216262</v>
       </c>
       <c r="DD15" s="1">
         <f t="shared" si="81"/>
-        <v>376.04836672462596</v>
+        <v>379.35751002154097</v>
       </c>
       <c r="DE15" s="1">
         <f t="shared" si="81"/>
-        <v>372.2878830573797</v>
+        <v>375.56393492132554</v>
       </c>
       <c r="DF15" s="1">
         <f t="shared" si="81"/>
-        <v>368.56500422680591</v>
+        <v>371.80829557211229</v>
       </c>
       <c r="DG15" s="1">
         <f t="shared" si="81"/>
-        <v>364.87935418453787</v>
+        <v>368.09021261639117</v>
       </c>
       <c r="DH15" s="1">
         <f t="shared" si="81"/>
-        <v>361.23056064269247</v>
+        <v>364.40931049022726</v>
       </c>
       <c r="DI15" s="1">
         <f t="shared" si="81"/>
-        <v>357.61825503626557</v>
+        <v>360.765217385325</v>
       </c>
       <c r="DJ15" s="1">
         <f t="shared" si="81"/>
-        <v>354.04207248590291</v>
+        <v>357.15756521147176</v>
       </c>
       <c r="DK15" s="1">
         <f t="shared" si="81"/>
-        <v>350.50165176104389</v>
+        <v>353.58598955935702</v>
       </c>
       <c r="DL15" s="1">
         <f t="shared" si="81"/>
-        <v>346.99663524343345</v>
+        <v>350.05012966376347</v>
       </c>
       <c r="DM15" s="1">
         <f t="shared" si="81"/>
-        <v>343.52666889099913</v>
+        <v>346.54962836712582</v>
       </c>
       <c r="DN15" s="1">
         <f t="shared" si="81"/>
-        <v>340.09140220208911</v>
+        <v>343.08413208345456</v>
       </c>
       <c r="DO15" s="1">
         <f t="shared" si="81"/>
-        <v>336.6904881800682</v>
+        <v>339.65329076262003</v>
       </c>
       <c r="DP15" s="1">
         <f t="shared" si="81"/>
-        <v>333.32358329826752</v>
+        <v>336.25675785499385</v>
       </c>
       <c r="DQ15" s="1">
         <f t="shared" si="81"/>
-        <v>329.99034746528486</v>
+        <v>332.89419027644391</v>
       </c>
       <c r="DR15" s="1">
         <f t="shared" si="81"/>
-        <v>326.69044399063199</v>
+        <v>329.56524837367948</v>
       </c>
       <c r="DS15" s="1">
         <f t="shared" si="81"/>
-        <v>323.42353955072565</v>
+        <v>326.26959588994271</v>
       </c>
       <c r="DT15" s="1">
         <f t="shared" si="81"/>
-        <v>320.18930415521839</v>
+        <v>323.00689993104328</v>
       </c>
       <c r="DU15" s="1">
         <f t="shared" si="81"/>
-        <v>316.98741111366621</v>
+        <v>319.77683093173283</v>
       </c>
       <c r="DV15" s="1">
         <f t="shared" si="81"/>
-        <v>313.81753700252955</v>
+        <v>316.57906262241551</v>
       </c>
       <c r="DW15" s="1">
         <f t="shared" si="81"/>
-        <v>310.67936163250425</v>
+        <v>313.41327199619133</v>
       </c>
       <c r="DX15" s="1">
         <f t="shared" si="81"/>
-        <v>307.57256801617922</v>
+        <v>310.27913927622939</v>
       </c>
       <c r="DY15" s="1">
         <f t="shared" si="81"/>
-        <v>304.49684233601744</v>
+        <v>307.17634788346709</v>
       </c>
       <c r="DZ15" s="1">
         <f t="shared" si="81"/>
-        <v>301.45187391265728</v>
+        <v>304.10458440463242</v>
       </c>
       <c r="EA15" s="1">
         <f t="shared" si="81"/>
-        <v>298.4373551735307</v>
+        <v>301.0635385605861</v>
       </c>
       <c r="EB15" s="1">
         <f t="shared" si="81"/>
-        <v>295.4529816217954</v>
+        <v>298.05290317498026</v>
       </c>
       <c r="EC15" s="1">
         <f t="shared" si="81"/>
-        <v>292.49845180557742</v>
+        <v>295.07237414323043</v>
       </c>
       <c r="ED15" s="1">
         <f t="shared" si="81"/>
-        <v>289.57346728752162</v>
+        <v>292.12165040179815</v>
       </c>
       <c r="EE15" s="1">
         <f t="shared" si="81"/>
-        <v>286.6777326146464</v>
+        <v>289.20043389778016</v>
       </c>
       <c r="EF15" s="1">
         <f t="shared" si="81"/>
-        <v>283.81095528849994</v>
+        <v>286.30842955880235</v>
       </c>
       <c r="EG15" s="1">
         <f t="shared" si="81"/>
-        <v>280.97284573561495</v>
+        <v>283.44534526321434</v>
       </c>
       <c r="EH15" s="1">
         <f t="shared" si="81"/>
-        <v>278.16311727825882</v>
+        <v>280.61089181058219</v>
       </c>
       <c r="EI15" s="1">
         <f t="shared" si="81"/>
-        <v>275.38148610547626</v>
+        <v>277.80478289247634</v>
       </c>
     </row>
     <row r="16" spans="2:139" x14ac:dyDescent="0.3">
@@ -3347,16 +3327,20 @@
         <v>44.9</v>
       </c>
       <c r="S16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
       <c r="T16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
       <c r="U16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
       <c r="V16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
       <c r="X16" s="5">
         <v>44.9</v>
@@ -3377,37 +3361,48 @@
         <v>44.9</v>
       </c>
       <c r="AD16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
       <c r="AE16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
       <c r="AF16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
       <c r="AG16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
       <c r="AH16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
       <c r="AI16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
       <c r="AJ16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
       <c r="AK16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
       <c r="AL16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
       <c r="AM16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
       <c r="AN16" s="5">
-        <v>44.9</v>
+        <f>39.3+6.2</f>
+        <v>45.5</v>
       </c>
     </row>
     <row r="17" spans="2:44" x14ac:dyDescent="0.3">
@@ -3480,19 +3475,19 @@
       </c>
       <c r="S17" s="7">
         <f t="shared" ref="S17" si="83">S15/S16</f>
-        <v>0.57304008908685933</v>
+        <v>0.76923076923076861</v>
       </c>
       <c r="T17" s="7">
         <f t="shared" ref="T17" si="84">T15/T16</f>
-        <v>0.60383886414253907</v>
+        <v>0.65250109890109864</v>
       </c>
       <c r="U17" s="7">
         <f t="shared" ref="U17" si="85">U15/U16</f>
-        <v>0.69949775055679297</v>
+        <v>0.64385912087912134</v>
       </c>
       <c r="V17" s="7">
         <f t="shared" ref="V17" si="86">V15/V16</f>
-        <v>0.74195496659242777</v>
+        <v>0.68205120879120873</v>
       </c>
       <c r="X17" s="7">
         <f t="shared" ref="X17:AE17" si="87">X15/X16</f>
@@ -3520,47 +3515,47 @@
       </c>
       <c r="AD17" s="7">
         <f t="shared" si="87"/>
-        <v>2.6183316703786166</v>
+        <v>2.747642197802199</v>
       </c>
       <c r="AE17" s="7">
         <f t="shared" si="87"/>
-        <v>4.0400613585746097</v>
+        <v>4.0649874587912098</v>
       </c>
       <c r="AF17" s="7">
         <f t="shared" ref="AF17" si="88">AF15/AF16</f>
-        <v>5.9254798474387496</v>
+        <v>5.9394509208791204</v>
       </c>
       <c r="AG17" s="7">
         <f t="shared" ref="AG17" si="89">AG15/AG16</f>
-        <v>7.7862896124164749</v>
+        <v>7.7852356306813144</v>
       </c>
       <c r="AH17" s="7">
         <f t="shared" ref="AH17" si="90">AH15/AH16</f>
-        <v>9.304067959477166</v>
+        <v>9.2904352811475786</v>
       </c>
       <c r="AI17" s="7">
         <f t="shared" ref="AI17" si="91">AI15/AI16</f>
-        <v>10.69955191553459</v>
+        <v>10.674365370478984</v>
       </c>
       <c r="AJ17" s="7">
         <f t="shared" ref="AJ17" si="92">AJ15/AJ16</f>
-        <v>11.891406999885994</v>
+        <v>11.856525301572237</v>
       </c>
       <c r="AK17" s="7">
         <f t="shared" ref="AK17" si="93">AK15/AK16</f>
-        <v>12.970335389698883</v>
+        <v>12.926351293205428</v>
       </c>
       <c r="AL17" s="7">
         <f t="shared" ref="AL17" si="94">AL15/AL16</f>
-        <v>14.110650557089098</v>
+        <v>14.057015570726829</v>
       </c>
       <c r="AM17" s="7">
         <f t="shared" ref="AM17" si="95">AM15/AM16</f>
-        <v>15.315548180070163</v>
+        <v>15.25168505807474</v>
       </c>
       <c r="AN17" s="7">
         <f t="shared" ref="AN17" si="96">AN15/AN16</f>
-        <v>16.588386022658646</v>
+        <v>16.51368730627642</v>
       </c>
     </row>
     <row r="19" spans="2:44" x14ac:dyDescent="0.3">
@@ -3621,11 +3616,11 @@
       </c>
       <c r="S19" s="9">
         <f t="shared" ref="S19:V19" si="98">S3/O3-1</f>
-        <v>0.32159904534606221</v>
+        <v>0.37649164677804303</v>
       </c>
       <c r="T19" s="9">
         <f t="shared" si="98"/>
-        <v>0.30000000000000004</v>
+        <v>0.35000000000000009</v>
       </c>
       <c r="U19" s="9">
         <f t="shared" si="98"/>
@@ -3658,7 +3653,7 @@
       </c>
       <c r="AD19" s="9">
         <f t="shared" ref="AD19:AN19" si="101">AD3/AC3-1</f>
-        <v>0.29666087421467724</v>
+        <v>0.32087555139687218</v>
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="101"/>
@@ -3771,19 +3766,19 @@
       </c>
       <c r="S20" s="9">
         <f t="shared" ref="S20:V20" si="103">S5/S3</f>
-        <v>0.72</v>
+        <v>0.71131339401820548</v>
       </c>
       <c r="T20" s="9">
         <f t="shared" si="103"/>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="U20" s="9">
         <f t="shared" si="103"/>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="V20" s="9">
         <f t="shared" si="103"/>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="X20" s="9">
         <f t="shared" ref="X20:Y20" si="104">X5/X3</f>
@@ -3811,47 +3806,47 @@
       </c>
       <c r="AD20" s="9">
         <f t="shared" ref="AD20:AN20" si="106">AD5/AD3</f>
-        <v>0.72</v>
+        <v>0.71030663453919307</v>
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="106"/>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="AF20" s="9">
         <f t="shared" si="106"/>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="AG20" s="9">
         <f t="shared" si="106"/>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="AH20" s="9">
         <f t="shared" si="106"/>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="AI20" s="9">
         <f t="shared" si="106"/>
-        <v>0.71999999999999986</v>
+        <v>0.71</v>
       </c>
       <c r="AJ20" s="9">
         <f t="shared" si="106"/>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="AK20" s="9">
         <f t="shared" si="106"/>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="AL20" s="9">
         <f t="shared" si="106"/>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="AM20" s="9">
         <f t="shared" si="106"/>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="AN20" s="9">
         <f t="shared" si="106"/>
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="21" spans="2:44" x14ac:dyDescent="0.3">
@@ -3912,7 +3907,7 @@
       </c>
       <c r="S21" s="9">
         <f t="shared" ref="S21:V21" si="108">S6/O6-1</f>
-        <v>0.35000000000000009</v>
+        <v>0.38310412573673891</v>
       </c>
       <c r="T21" s="9">
         <f t="shared" si="108"/>
@@ -3949,7 +3944,7 @@
       </c>
       <c r="AD21" s="9">
         <f t="shared" ref="AD21:AN21" si="111">AD6/AC6-1</f>
-        <v>0.26952826179345513</v>
+        <v>0.27668933276668084</v>
       </c>
       <c r="AE21" s="9">
         <f t="shared" si="111"/>
@@ -4068,7 +4063,7 @@
       </c>
       <c r="S22" s="9">
         <f t="shared" ref="S22:V22" si="113">S7/S3</f>
-        <v>0.10999999999999999</v>
+        <v>0.11573472041612484</v>
       </c>
       <c r="T22" s="9">
         <f t="shared" si="113"/>
@@ -4108,7 +4103,7 @@
       </c>
       <c r="AD22" s="9">
         <f t="shared" ref="AD22:AN22" si="116">AD7/AD3</f>
-        <v>0.11000000000000001</v>
+        <v>0.11133886962162512</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="116"/>
@@ -4128,7 +4123,7 @@
       </c>
       <c r="AI22" s="9">
         <f t="shared" si="116"/>
-        <v>8.9999999999999983E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AJ22" s="9">
         <f t="shared" si="116"/>
@@ -4215,7 +4210,7 @@
       </c>
       <c r="S23" s="9">
         <f t="shared" ref="S23:V23" si="118">S8/O8-1</f>
-        <v>0.30000000000000004</v>
+        <v>0.23931623931623935</v>
       </c>
       <c r="T23" s="9">
         <f t="shared" si="118"/>
@@ -4252,7 +4247,7 @@
       </c>
       <c r="AD23" s="9">
         <f t="shared" ref="AD23:AN23" si="121">AD8/AC8-1</f>
-        <v>0.25269230769230777</v>
+        <v>0.23903846153846153</v>
       </c>
       <c r="AE23" s="9">
         <f t="shared" si="121"/>
@@ -4299,7 +4294,7 @@
       </c>
       <c r="AR23" s="5">
         <f>NPV(AR22,AD15:EI15)</f>
-        <v>6413.8831946323335</v>
+        <v>6483.2739757309128</v>
       </c>
     </row>
     <row r="24" spans="2:44" x14ac:dyDescent="0.3">
@@ -4372,19 +4367,19 @@
       </c>
       <c r="S24" s="9">
         <f t="shared" ref="S24:V24" si="123">S10/S3</f>
-        <v>9.3769751693002182E-2</v>
+        <v>0.10186389250108353</v>
       </c>
       <c r="T24" s="9">
         <f t="shared" si="123"/>
-        <v>9.3454851374088613E-2</v>
+        <v>0.10258615317504821</v>
       </c>
       <c r="U24" s="9">
         <f t="shared" si="123"/>
-        <v>0.10541162549204282</v>
+        <v>9.5411625492042892E-2</v>
       </c>
       <c r="V24" s="9">
         <f t="shared" si="123"/>
-        <v>0.10793505486641225</v>
+        <v>9.7935054866412199E-2</v>
       </c>
       <c r="X24" s="9">
         <f t="shared" ref="X24:Y24" si="124">X10/X3</f>
@@ -4412,54 +4407,54 @@
       </c>
       <c r="AD24" s="9">
         <f t="shared" ref="AD24:AN24" si="126">AD10/AD3</f>
-        <v>0.1005941247299057</v>
+        <v>9.9350805092764602E-2</v>
       </c>
       <c r="AE24" s="9">
         <f t="shared" si="126"/>
-        <v>0.1407325119171326</v>
+        <v>0.13992645831035264</v>
       </c>
       <c r="AF24" s="9">
         <f t="shared" si="126"/>
-        <v>0.18425504450712268</v>
+        <v>0.18279044109833861</v>
       </c>
       <c r="AG24" s="9">
         <f t="shared" si="126"/>
-        <v>0.21762272184416784</v>
+        <v>0.21553416413444196</v>
       </c>
       <c r="AH24" s="9">
         <f t="shared" si="126"/>
-        <v>0.24011602792539508</v>
+        <v>0.23759593699983605</v>
       </c>
       <c r="AI24" s="9">
         <f t="shared" si="126"/>
-        <v>0.25816621181773797</v>
+        <v>0.25529982880539914</v>
       </c>
       <c r="AJ24" s="9">
         <f t="shared" si="126"/>
-        <v>0.272197675522729</v>
+        <v>0.26906209941651621</v>
       </c>
       <c r="AK24" s="9">
         <f t="shared" si="126"/>
-        <v>0.28376165101467493</v>
+        <v>0.28039101498596242</v>
       </c>
       <c r="AL24" s="9">
         <f t="shared" si="126"/>
-        <v>0.29494413951407178</v>
+        <v>0.29134664274257049</v>
       </c>
       <c r="AM24" s="9">
         <f t="shared" si="126"/>
-        <v>0.30575798684709848</v>
+        <v>0.30194153774807297</v>
       </c>
       <c r="AN24" s="9">
         <f t="shared" si="126"/>
-        <v>0.31621559767545887</v>
+        <v>0.31218782435974735</v>
       </c>
       <c r="AQ24" t="s">
         <v>70</v>
       </c>
       <c r="AR24" s="5">
         <f>Main!D8</f>
-        <v>785.8</v>
+        <v>1082.5999999999999</v>
       </c>
     </row>
     <row r="25" spans="2:44" x14ac:dyDescent="0.3">
@@ -4532,7 +4527,7 @@
       </c>
       <c r="S25" s="9">
         <f t="shared" ref="S25:V25" si="128">S14/S13</f>
-        <v>0.15</v>
+        <v>-2.8653295128939853E-3</v>
       </c>
       <c r="T25" s="9">
         <f t="shared" si="128"/>
@@ -4572,7 +4567,7 @@
       </c>
       <c r="AD25" s="9">
         <f t="shared" ref="AD25:AN25" si="131">AD14/AD13</f>
-        <v>0.15000000000000011</v>
+        <v>0.11211023613099698</v>
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="131"/>
@@ -4612,14 +4607,14 @@
       </c>
       <c r="AN25" s="9">
         <f t="shared" si="131"/>
-        <v>0.14999999999999997</v>
+        <v>0.15</v>
       </c>
       <c r="AQ25" t="s">
         <v>71</v>
       </c>
       <c r="AR25" s="5">
         <f>AR23+AR24</f>
-        <v>7199.6831946323337</v>
+        <v>7565.8739757309122</v>
       </c>
     </row>
     <row r="26" spans="2:44" x14ac:dyDescent="0.3">
@@ -4692,19 +4687,19 @@
       </c>
       <c r="S26" s="9">
         <f t="shared" ref="S26:V26" si="133">S15/S3</f>
-        <v>0.1161602708803611</v>
+        <v>0.15171218032076278</v>
       </c>
       <c r="T26" s="9">
         <f t="shared" si="133"/>
-        <v>0.1169695198239786</v>
+        <v>0.1233410190897571</v>
       </c>
       <c r="U26" s="9">
         <f t="shared" si="133"/>
-        <v>0.12641152486979482</v>
+        <v>0.11791152486979488</v>
       </c>
       <c r="V26" s="9">
         <f t="shared" si="133"/>
-        <v>0.12417170354246185</v>
+        <v>0.11567170354246183</v>
       </c>
       <c r="X26" s="9">
         <f t="shared" ref="X26:Y26" si="134">X15/X3</f>
@@ -4732,54 +4727,54 @@
       </c>
       <c r="AD26" s="9">
         <f t="shared" ref="AD26:AN26" si="136">AD15/AD3</f>
-        <v>0.12119506572979023</v>
+        <v>0.12651732991144035</v>
       </c>
       <c r="AE26" s="9">
         <f t="shared" si="136"/>
-        <v>0.14960228528543387</v>
+        <v>0.14974041665865506</v>
       </c>
       <c r="AF26" s="9">
         <f t="shared" si="136"/>
-        <v>0.18284898171744154</v>
+        <v>0.18232443614158619</v>
       </c>
       <c r="AG26" s="9">
         <f t="shared" si="136"/>
-        <v>0.20893044711598324</v>
+        <v>0.20781289974766551</v>
       </c>
       <c r="AH26" s="9">
         <f t="shared" si="136"/>
-        <v>0.22696106939646088</v>
+        <v>0.22544682212718731</v>
       </c>
       <c r="AI26" s="9">
         <f t="shared" si="136"/>
-        <v>0.2416686577699558</v>
+        <v>0.23984262250421243</v>
       </c>
       <c r="AJ26" s="9">
         <f t="shared" si="136"/>
-        <v>0.25338570967651064</v>
+        <v>0.25132510188196738</v>
       </c>
       <c r="AK26" s="9">
         <f t="shared" si="136"/>
-        <v>0.26321508884466471</v>
+        <v>0.26095468011599671</v>
       </c>
       <c r="AL26" s="9">
         <f t="shared" si="136"/>
-        <v>0.27272020406915198</v>
+        <v>0.27026696370911357</v>
       </c>
       <c r="AM26" s="9">
         <f t="shared" si="136"/>
-        <v>0.2819119743022247</v>
+        <v>0.27927262446379064</v>
       </c>
       <c r="AN26" s="9">
         <f t="shared" si="136"/>
-        <v>0.29080094350633107</v>
+        <v>0.28798196808371385</v>
       </c>
       <c r="AQ26" t="s">
         <v>72</v>
       </c>
       <c r="AR26" s="4">
         <f>AR25/AN16</f>
-        <v>160.34929163991836</v>
+        <v>166.28294452155851</v>
       </c>
     </row>
     <row r="27" spans="2:44" x14ac:dyDescent="0.3">
@@ -4788,7 +4783,7 @@
       </c>
       <c r="AR27" s="4">
         <f>Main!D3</f>
-        <v>310.01</v>
+        <v>486.42</v>
       </c>
     </row>
     <row r="28" spans="2:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4821,54 +4816,54 @@
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="137"/>
-        <v>117.56309199999988</v>
+        <v>125.01772000000005</v>
       </c>
       <c r="AE28" s="8">
         <f t="shared" si="137"/>
-        <v>181.39875499999997</v>
+        <v>184.95692937500004</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="137"/>
-        <v>266.05404514999987</v>
+        <v>270.2450169</v>
       </c>
       <c r="AG28" s="8">
         <f t="shared" si="137"/>
-        <v>349.6044035974997</v>
+        <v>354.22822119599982</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="137"/>
-        <v>417.75265138052475</v>
+        <v>422.71480529221486</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="137"/>
-        <v>480.40988100750309</v>
+        <v>485.68362435679376</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="137"/>
-        <v>533.92417429488114</v>
+        <v>539.47190122153677</v>
       </c>
       <c r="AK28" s="8">
         <f t="shared" si="137"/>
-        <v>582.36805899747981</v>
+        <v>588.148983840847</v>
       </c>
       <c r="AL28" s="8">
         <f t="shared" si="137"/>
-        <v>633.56821001330047</v>
+        <v>639.59420846807075</v>
       </c>
       <c r="AM28" s="8">
         <f t="shared" si="137"/>
-        <v>687.6681132851503</v>
+        <v>693.95167014240064</v>
       </c>
       <c r="AN28" s="8">
         <f t="shared" si="137"/>
-        <v>744.81853241737326</v>
+        <v>751.37277243557719</v>
       </c>
       <c r="AQ28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AR28" s="10">
         <f>AR26/AR27-1</f>
-        <v>-0.48276090564846819</v>
+        <v>-0.65814945001941016</v>
       </c>
     </row>
     <row r="29" spans="2:44" x14ac:dyDescent="0.3">
@@ -5466,47 +5461,47 @@
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="141"/>
-        <v>250.55809199999987</v>
+        <v>258.01272000000006</v>
       </c>
       <c r="AE39" s="8">
         <f t="shared" ref="AE39:AN39" si="142">AE28+SUM(AE29:AE38)</f>
-        <v>327.12100499999997</v>
+        <v>330.67917937500005</v>
       </c>
       <c r="AF39" s="8">
         <f t="shared" si="142"/>
-        <v>425.74765764999989</v>
+        <v>429.93862940000002</v>
       </c>
       <c r="AG39" s="8">
         <f t="shared" si="142"/>
-        <v>524.63647172249978</v>
+        <v>529.26028932099985</v>
       </c>
       <c r="AH39" s="8">
         <f t="shared" si="142"/>
-        <v>609.6254754117748</v>
+        <v>614.58762932346497</v>
       </c>
       <c r="AI39" s="8">
         <f t="shared" si="142"/>
-        <v>676.53750559031573</v>
+        <v>681.81124893960634</v>
       </c>
       <c r="AJ39" s="8">
         <f t="shared" si="142"/>
-        <v>734.41256264383435</v>
+        <v>739.96028957048998</v>
       </c>
       <c r="AK39" s="8">
         <f t="shared" si="142"/>
-        <v>787.32633695162076</v>
+        <v>793.10726179498783</v>
       </c>
       <c r="AL39" s="8">
         <f t="shared" si="142"/>
-        <v>843.10878145664321</v>
+        <v>849.13477991141349</v>
       </c>
       <c r="AM39" s="8">
         <f t="shared" si="142"/>
-        <v>901.9067804839849</v>
+        <v>908.19033734123525</v>
       </c>
       <c r="AN39" s="8">
         <f t="shared" si="142"/>
-        <v>963.87462150314082</v>
+        <v>970.42886152134474</v>
       </c>
     </row>
     <row r="40" spans="2:136" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5741,467 +5736,467 @@
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="147"/>
-        <v>227.34809199999987</v>
+        <v>234.80272000000005</v>
       </c>
       <c r="AE43" s="8">
         <f t="shared" ref="AE43:AN43" si="148">AE39-AE42</f>
-        <v>301.59000499999996</v>
+        <v>305.14817937500004</v>
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="148"/>
-        <v>397.66355764999992</v>
+        <v>401.85452940000005</v>
       </c>
       <c r="AG43" s="8">
         <f t="shared" si="148"/>
-        <v>493.74396172249976</v>
+        <v>498.36777932099983</v>
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="148"/>
-        <v>575.64371441177479</v>
+        <v>580.60586832346496</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="148"/>
-        <v>639.15756849031573</v>
+        <v>644.43131183960634</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="148"/>
-        <v>693.29463183383427</v>
+        <v>698.84235876049001</v>
       </c>
       <c r="AK43" s="8">
         <f t="shared" si="148"/>
-        <v>742.09661306062071</v>
+        <v>747.87753790398779</v>
       </c>
       <c r="AL43" s="8">
         <f t="shared" si="148"/>
-        <v>793.35608517654316</v>
+        <v>799.38208363131344</v>
       </c>
       <c r="AM43" s="8">
         <f t="shared" si="148"/>
-        <v>847.17881457587487</v>
+        <v>853.46237143312521</v>
       </c>
       <c r="AN43" s="8">
         <f t="shared" si="148"/>
-        <v>903.67385900421982</v>
+        <v>910.22809902242375</v>
       </c>
       <c r="AO43" s="1">
         <f>AN43*(1+$AR$21)</f>
-        <v>894.63712041417762</v>
+        <v>901.1258180321995</v>
       </c>
       <c r="AP43" s="1">
         <f t="shared" ref="AP43:DA43" si="149">AO43*(1+$AR$21)</f>
-        <v>885.69074921003585</v>
+        <v>892.11455985187752</v>
       </c>
       <c r="AQ43" s="1">
         <f t="shared" si="149"/>
-        <v>876.83384171793546</v>
+        <v>883.1934142533587</v>
       </c>
       <c r="AR43" s="1">
         <f t="shared" si="149"/>
-        <v>868.06550330075606</v>
+        <v>874.36148011082514</v>
       </c>
       <c r="AS43" s="1">
         <f t="shared" si="149"/>
-        <v>859.38484826774845</v>
+        <v>865.61786530971688</v>
       </c>
       <c r="AT43" s="1">
         <f t="shared" si="149"/>
-        <v>850.79099978507099</v>
+        <v>856.96168665661969</v>
       </c>
       <c r="AU43" s="1">
         <f t="shared" si="149"/>
-        <v>842.28308978722032</v>
+        <v>848.39206979005348</v>
       </c>
       <c r="AV43" s="1">
         <f t="shared" si="149"/>
-        <v>833.86025888934807</v>
+        <v>839.90814909215294</v>
       </c>
       <c r="AW43" s="1">
         <f t="shared" si="149"/>
-        <v>825.52165630045454</v>
+        <v>831.50906760123144</v>
       </c>
       <c r="AX43" s="1">
         <f t="shared" si="149"/>
-        <v>817.26643973745001</v>
+        <v>823.19397692521909</v>
       </c>
       <c r="AY43" s="1">
         <f t="shared" si="149"/>
-        <v>809.09377534007547</v>
+        <v>814.96203715596687</v>
       </c>
       <c r="AZ43" s="1">
         <f t="shared" si="149"/>
-        <v>801.00283758667467</v>
+        <v>806.81241678440722</v>
       </c>
       <c r="BA43" s="1">
         <f t="shared" si="149"/>
-        <v>792.99280921080788</v>
+        <v>798.74429261656314</v>
       </c>
       <c r="BB43" s="1">
         <f t="shared" si="149"/>
-        <v>785.06288111869981</v>
+        <v>790.75684969039753</v>
       </c>
       <c r="BC43" s="1">
         <f t="shared" si="149"/>
-        <v>777.21225230751281</v>
+        <v>782.84928119349354</v>
       </c>
       <c r="BD43" s="1">
         <f t="shared" si="149"/>
-        <v>769.44012978443766</v>
+        <v>775.02078838155865</v>
       </c>
       <c r="BE43" s="1">
         <f t="shared" si="149"/>
-        <v>761.74572848659329</v>
+        <v>767.27058049774303</v>
       </c>
       <c r="BF43" s="1">
         <f t="shared" si="149"/>
-        <v>754.12827120172733</v>
+        <v>759.59787469276557</v>
       </c>
       <c r="BG43" s="1">
         <f t="shared" si="149"/>
-        <v>746.58698848971005</v>
+        <v>752.00189594583787</v>
       </c>
       <c r="BH43" s="1">
         <f t="shared" si="149"/>
-        <v>739.12111860481298</v>
+        <v>744.48187698637946</v>
       </c>
       <c r="BI43" s="1">
         <f t="shared" si="149"/>
-        <v>731.72990741876481</v>
+        <v>737.03705821651567</v>
       </c>
       <c r="BJ43" s="1">
         <f t="shared" si="149"/>
-        <v>724.41260834457717</v>
+        <v>729.66668763435052</v>
       </c>
       <c r="BK43" s="1">
         <f t="shared" si="149"/>
-        <v>717.16848226113143</v>
+        <v>722.37002075800706</v>
       </c>
       <c r="BL43" s="1">
         <f t="shared" si="149"/>
-        <v>709.99679743852016</v>
+        <v>715.14632055042694</v>
       </c>
       <c r="BM43" s="1">
         <f t="shared" si="149"/>
-        <v>702.89682946413495</v>
+        <v>707.99485734492271</v>
       </c>
       <c r="BN43" s="1">
         <f t="shared" si="149"/>
-        <v>695.86786116949361</v>
+        <v>700.91490877147351</v>
       </c>
       <c r="BO43" s="1">
         <f t="shared" si="149"/>
-        <v>688.90918255779866</v>
+        <v>693.90575968375879</v>
       </c>
       <c r="BP43" s="1">
         <f t="shared" si="149"/>
-        <v>682.02009073222064</v>
+        <v>686.96670208692115</v>
       </c>
       <c r="BQ43" s="1">
         <f t="shared" si="149"/>
-        <v>675.19988982489838</v>
+        <v>680.09703506605194</v>
       </c>
       <c r="BR43" s="1">
         <f t="shared" si="149"/>
-        <v>668.44789092664939</v>
+        <v>673.29606471539137</v>
       </c>
       <c r="BS43" s="1">
         <f t="shared" si="149"/>
-        <v>661.76341201738285</v>
+        <v>666.56310406823741</v>
       </c>
       <c r="BT43" s="1">
         <f t="shared" si="149"/>
-        <v>655.14577789720897</v>
+        <v>659.89747302755507</v>
       </c>
       <c r="BU43" s="1">
         <f t="shared" si="149"/>
-        <v>648.59432011823685</v>
+        <v>653.29849829727948</v>
       </c>
       <c r="BV43" s="1">
         <f t="shared" si="149"/>
-        <v>642.10837691705444</v>
+        <v>646.76551331430665</v>
       </c>
       <c r="BW43" s="1">
         <f t="shared" si="149"/>
-        <v>635.68729314788391</v>
+        <v>640.29785818116352</v>
       </c>
       <c r="BX43" s="1">
         <f t="shared" si="149"/>
-        <v>629.33042021640506</v>
+        <v>633.89487959935184</v>
       </c>
       <c r="BY43" s="1">
         <f t="shared" si="149"/>
-        <v>623.03711601424095</v>
+        <v>627.55593080335836</v>
       </c>
       <c r="BZ43" s="1">
         <f t="shared" si="149"/>
-        <v>616.8067448540985</v>
+        <v>621.28037149532474</v>
       </c>
       <c r="CA43" s="1">
         <f t="shared" si="149"/>
-        <v>610.63867740555747</v>
+        <v>615.06756778037152</v>
       </c>
       <c r="CB43" s="1">
         <f t="shared" si="149"/>
-        <v>604.53229063150184</v>
+        <v>608.91689210256777</v>
       </c>
       <c r="CC43" s="1">
         <f t="shared" si="149"/>
-        <v>598.48696772518679</v>
+        <v>602.82772318154207</v>
       </c>
       <c r="CD43" s="1">
         <f t="shared" si="149"/>
-        <v>592.50209804793496</v>
+        <v>596.79944594972665</v>
       </c>
       <c r="CE43" s="1">
         <f t="shared" si="149"/>
-        <v>586.57707706745566</v>
+        <v>590.83145149022937</v>
       </c>
       <c r="CF43" s="1">
         <f t="shared" si="149"/>
-        <v>580.71130629678112</v>
+        <v>584.92313697532711</v>
       </c>
       <c r="CG43" s="1">
         <f t="shared" si="149"/>
-        <v>574.90419323381332</v>
+        <v>579.07390560557383</v>
       </c>
       <c r="CH43" s="1">
         <f t="shared" si="149"/>
-        <v>569.15515130147514</v>
+        <v>573.28316654951811</v>
       </c>
       <c r="CI43" s="1">
         <f t="shared" si="149"/>
-        <v>563.46359978846044</v>
+        <v>567.55033488402296</v>
       </c>
       <c r="CJ43" s="1">
         <f t="shared" si="149"/>
-        <v>557.82896379057581</v>
+        <v>561.87483153518269</v>
       </c>
       <c r="CK43" s="1">
         <f t="shared" si="149"/>
-        <v>552.25067415267006</v>
+        <v>556.25608321983088</v>
       </c>
       <c r="CL43" s="1">
         <f t="shared" si="149"/>
-        <v>546.72816741114332</v>
+        <v>550.69352238763258</v>
       </c>
       <c r="CM43" s="1">
         <f t="shared" si="149"/>
-        <v>541.26088573703191</v>
+        <v>545.18658716375626</v>
       </c>
       <c r="CN43" s="1">
         <f t="shared" si="149"/>
-        <v>535.84827687966163</v>
+        <v>539.73472129211871</v>
       </c>
       <c r="CO43" s="1">
         <f t="shared" si="149"/>
-        <v>530.48979411086498</v>
+        <v>534.3373740791975</v>
       </c>
       <c r="CP43" s="1">
         <f t="shared" si="149"/>
-        <v>525.18489616975637</v>
+        <v>528.9940003384055</v>
       </c>
       <c r="CQ43" s="1">
         <f t="shared" si="149"/>
-        <v>519.93304720805884</v>
+        <v>523.7040603350215</v>
       </c>
       <c r="CR43" s="1">
         <f t="shared" si="149"/>
-        <v>514.73371673597819</v>
+        <v>518.46701973167126</v>
       </c>
       <c r="CS43" s="1">
         <f t="shared" si="149"/>
-        <v>509.58637956861838</v>
+        <v>513.28234953435458</v>
       </c>
       <c r="CT43" s="1">
         <f t="shared" si="149"/>
-        <v>504.49051577293221</v>
+        <v>508.14952603901105</v>
       </c>
       <c r="CU43" s="1">
         <f t="shared" si="149"/>
-        <v>499.4456106152029</v>
+        <v>503.06803077862094</v>
       </c>
       <c r="CV43" s="1">
         <f t="shared" si="149"/>
-        <v>494.45115450905087</v>
+        <v>498.03735047083472</v>
       </c>
       <c r="CW43" s="1">
         <f t="shared" si="149"/>
-        <v>489.50664296396036</v>
+        <v>493.0569769661264</v>
       </c>
       <c r="CX43" s="1">
         <f t="shared" si="149"/>
-        <v>484.61157653432076</v>
+        <v>488.12640719646515</v>
       </c>
       <c r="CY43" s="1">
         <f t="shared" si="149"/>
-        <v>479.76546076897756</v>
+        <v>483.24514312450049</v>
       </c>
       <c r="CZ43" s="1">
         <f t="shared" si="149"/>
-        <v>474.9678061612878</v>
+        <v>478.41269169325545</v>
       </c>
       <c r="DA43" s="1">
         <f t="shared" si="149"/>
-        <v>470.21812809967491</v>
+        <v>473.62856477632289</v>
       </c>
       <c r="DB43" s="1">
         <f t="shared" ref="DB43:EF43" si="150">DA43*(1+$AR$21)</f>
-        <v>465.51594681867817</v>
+        <v>468.89227912855966</v>
       </c>
       <c r="DC43" s="1">
         <f t="shared" si="150"/>
-        <v>460.86078735049136</v>
+        <v>464.20335633727404</v>
       </c>
       <c r="DD43" s="1">
         <f t="shared" si="150"/>
-        <v>456.25217947698644</v>
+        <v>459.56132277390128</v>
       </c>
       <c r="DE43" s="1">
         <f t="shared" si="150"/>
-        <v>451.68965768221659</v>
+        <v>454.96570954616226</v>
       </c>
       <c r="DF43" s="1">
         <f t="shared" si="150"/>
-        <v>447.17276110539444</v>
+        <v>450.41605245070065</v>
       </c>
       <c r="DG43" s="1">
         <f t="shared" si="150"/>
-        <v>442.70103349434049</v>
+        <v>445.91189192619362</v>
       </c>
       <c r="DH43" s="1">
         <f t="shared" si="150"/>
-        <v>438.27402315939707</v>
+        <v>441.45277300693169</v>
       </c>
       <c r="DI43" s="1">
         <f t="shared" si="150"/>
-        <v>433.8912829278031</v>
+        <v>437.03824527686237</v>
       </c>
       <c r="DJ43" s="1">
         <f t="shared" si="150"/>
-        <v>429.55237009852505</v>
+        <v>432.66786282409373</v>
       </c>
       <c r="DK43" s="1">
         <f t="shared" si="150"/>
-        <v>425.25684639753979</v>
+        <v>428.3411841958528</v>
       </c>
       <c r="DL43" s="1">
         <f t="shared" si="150"/>
-        <v>421.00427793356437</v>
+        <v>424.05777235389428</v>
       </c>
       <c r="DM43" s="1">
         <f t="shared" si="150"/>
-        <v>416.79423515422872</v>
+        <v>419.81719463035535</v>
       </c>
       <c r="DN43" s="1">
         <f t="shared" si="150"/>
-        <v>412.62629280268641</v>
+        <v>415.6190226840518</v>
       </c>
       <c r="DO43" s="1">
         <f t="shared" si="150"/>
-        <v>408.50002987465956</v>
+        <v>411.46283245721128</v>
       </c>
       <c r="DP43" s="1">
         <f t="shared" si="150"/>
-        <v>404.41502957591297</v>
+        <v>407.34820413263918</v>
       </c>
       <c r="DQ43" s="1">
         <f t="shared" si="150"/>
-        <v>400.37087928015382</v>
+        <v>403.27472209131281</v>
       </c>
       <c r="DR43" s="1">
         <f t="shared" si="150"/>
-        <v>396.36717048735227</v>
+        <v>399.2419748703997</v>
       </c>
       <c r="DS43" s="1">
         <f t="shared" si="150"/>
-        <v>392.40349878247872</v>
+        <v>395.24955512169572</v>
       </c>
       <c r="DT43" s="1">
         <f t="shared" si="150"/>
-        <v>388.47946379465395</v>
+        <v>391.29705957047878</v>
       </c>
       <c r="DU43" s="1">
         <f t="shared" si="150"/>
-        <v>384.59466915670743</v>
+        <v>387.38408897477399</v>
       </c>
       <c r="DV43" s="1">
         <f t="shared" si="150"/>
-        <v>380.74872246514036</v>
+        <v>383.51024808502626</v>
       </c>
       <c r="DW43" s="1">
         <f t="shared" si="150"/>
-        <v>376.94123524048894</v>
+        <v>379.67514560417601</v>
       </c>
       <c r="DX43" s="1">
         <f t="shared" si="150"/>
-        <v>373.17182288808402</v>
+        <v>375.87839414813425</v>
       </c>
       <c r="DY43" s="1">
         <f t="shared" si="150"/>
-        <v>369.4401046592032</v>
+        <v>372.11961020665291</v>
       </c>
       <c r="DZ43" s="1">
         <f t="shared" si="150"/>
-        <v>365.74570361261118</v>
+        <v>368.39841410458638</v>
       </c>
       <c r="EA43" s="1">
         <f t="shared" si="150"/>
-        <v>362.08824657648506</v>
+        <v>364.71442996354051</v>
       </c>
       <c r="EB43" s="1">
         <f t="shared" si="150"/>
-        <v>358.46736411072021</v>
+        <v>361.06728566390512</v>
       </c>
       <c r="EC43" s="1">
         <f t="shared" si="150"/>
-        <v>354.88269046961301</v>
+        <v>357.45661280726608</v>
       </c>
       <c r="ED43" s="1">
         <f t="shared" si="150"/>
-        <v>351.3338635649169</v>
+        <v>353.88204667919342</v>
       </c>
       <c r="EE43" s="1">
         <f t="shared" si="150"/>
-        <v>347.82052492926772</v>
+        <v>350.34322621240148</v>
       </c>
       <c r="EF43" s="1">
         <f t="shared" si="150"/>
-        <v>344.34231967997505</v>
+        <v>346.83979395027745</v>
       </c>
     </row>
     <row r="46" spans="2:136" x14ac:dyDescent="0.3">
       <c r="AR46" s="5">
         <f>NPV(AR22,AD43:EF43)</f>
-        <v>8186.801914214996</v>
+        <v>8256.1910211471059</v>
       </c>
     </row>
     <row r="47" spans="2:136" x14ac:dyDescent="0.3">
       <c r="AR47" s="5">
         <f>Main!D8</f>
-        <v>785.8</v>
+        <v>1082.5999999999999</v>
       </c>
     </row>
     <row r="48" spans="2:136" x14ac:dyDescent="0.3">
       <c r="AR48" s="5">
         <f>AR46+AR47</f>
-        <v>8972.6019142149962</v>
+        <v>9338.7910211471062</v>
       </c>
     </row>
     <row r="49" spans="44:44" x14ac:dyDescent="0.3">
       <c r="AR49" s="4">
         <f>AR48/AN16</f>
-        <v>199.83523194242753</v>
+        <v>205.2481543109254</v>
       </c>
     </row>
     <row r="50" spans="44:44" x14ac:dyDescent="0.3">
       <c r="AR50" s="4">
         <f>Main!D3</f>
-        <v>310.01</v>
+        <v>486.42</v>
       </c>
     </row>
     <row r="51" spans="44:44" x14ac:dyDescent="0.3">
       <c r="AR51" s="10">
         <f>AR49/AR50-1</f>
-        <v>-0.3553910133788345</v>
+        <v>-0.57804334872964636</v>
       </c>
     </row>
   </sheetData>
